--- a/data/combined data/combined data - 1 cleaning/cleaning step 3 - education/education_2022.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 3 - education/education_2022.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 3 - education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bbfcd27a554a9ef/04_NK Elites/Data Cleaning_0531/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F23A3-68DB-48C2-B825-A472741E6FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5CB103D-906C-0A41-BBBB-9F84820ED8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="398">
   <si>
     <t>LeaderID</t>
   </si>
@@ -1087,25 +1100,146 @@
     <t>SchoolName</t>
   </si>
   <si>
-    <t>SchoolDate</t>
+    <t>프라하공과대학</t>
+  </si>
+  <si>
+    <t>레닌그라드대학</t>
+  </si>
+  <si>
+    <t>*현 상트페테르부르크 대학</t>
+  </si>
+  <si>
+    <t>도네프로페드롭스크대학</t>
+  </si>
+  <si>
+    <t>소련 도네프로페드롭스크대학교 야금대학</t>
+  </si>
+  <si>
+    <t>중국 톈진 난카이대학</t>
+  </si>
+  <si>
+    <t>난카이대학</t>
+  </si>
+  <si>
+    <t>프룬제군사대학</t>
+  </si>
+  <si>
+    <t>소련</t>
+  </si>
+  <si>
+    <t>화성의숙</t>
+  </si>
+  <si>
+    <t>육문중학교</t>
+  </si>
+  <si>
+    <t>남산고급중학교</t>
+  </si>
+  <si>
+    <t>평양제1중학교</t>
+  </si>
+  <si>
+    <t>길림학원</t>
+  </si>
+  <si>
+    <t>리과대학</t>
+  </si>
+  <si>
+    <t>레닌그라드공과대학</t>
+  </si>
+  <si>
+    <t>베이징외국어대학</t>
+  </si>
+  <si>
+    <t>신의주외국어학원</t>
+  </si>
+  <si>
+    <t>조치대학</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>연희전문학교</t>
+  </si>
+  <si>
+    <t>현 연세대</t>
+  </si>
+  <si>
+    <t>칭다오중학교</t>
+  </si>
+  <si>
+    <t>소련보병학교</t>
+  </si>
+  <si>
+    <t>경기여자고등학교</t>
+  </si>
+  <si>
+    <t>만주비행학교</t>
+  </si>
+  <si>
+    <t>모스크바군사대학</t>
+  </si>
+  <si>
+    <t>소련공산대학</t>
+  </si>
+  <si>
+    <t>라이프치히공과대학</t>
+  </si>
+  <si>
+    <t>SchoolDate_Start</t>
+  </si>
+  <si>
+    <t>SchoolDate_end</t>
+  </si>
+  <si>
+    <t>타쉬켄트종합대학</t>
+  </si>
+  <si>
+    <t>무송제1소학교</t>
+  </si>
+  <si>
+    <t>남산고등중학교</t>
+  </si>
+  <si>
+    <t>모스크바종합대학</t>
+  </si>
+  <si>
+    <t>계응상사리원농업대학</t>
+  </si>
+  <si>
+    <t>소련해군학교</t>
+  </si>
+  <si>
+    <t>소련군사아카데미</t>
+  </si>
+  <si>
+    <t>소련군사대학</t>
+  </si>
+  <si>
+    <t>프다찌슬바다대학</t>
+  </si>
+  <si>
+    <t>소련아카데미</t>
+  </si>
+  <si>
+    <t>러시아공군대학</t>
+  </si>
+  <si>
+    <t>레닌군사정치아카데미</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1161,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1172,9 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,24 +1608,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G276"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="4"/>
-    <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1796875" style="5"/>
-    <col min="8" max="16384" width="16.1796875" style="3"/>
+    <col min="1" max="1" width="16.140625" style="4"/>
+    <col min="2" max="2" width="18.0234375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.328125" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.6953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="5"/>
+    <col min="9" max="9" width="27.0390625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="16.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,11 +1647,14 @@
       <c r="F1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +1667,14 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1544,8 +1687,14 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1561,8 +1710,14 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1575,8 +1730,14 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1750,14 @@
       <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1603,8 +1770,14 @@
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1620,8 +1793,14 @@
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1637,8 +1816,14 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1651,8 +1836,14 @@
       <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1665,8 +1856,14 @@
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1679,8 +1876,14 @@
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1693,8 +1896,17 @@
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1707,8 +1919,14 @@
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1721,8 +1939,14 @@
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1735,8 +1959,14 @@
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1749,8 +1979,14 @@
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1763,8 +1999,14 @@
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +2019,14 @@
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1791,8 +2039,14 @@
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -1805,8 +2059,14 @@
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -1822,8 +2082,14 @@
       <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1836,8 +2102,14 @@
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -1850,8 +2122,14 @@
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1864,8 +2142,14 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -1878,8 +2162,14 @@
       <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1892,8 +2182,14 @@
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -1906,8 +2202,14 @@
       <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -1920,8 +2222,14 @@
       <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
@@ -1934,8 +2242,14 @@
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>49</v>
       </c>
@@ -1948,8 +2262,14 @@
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
@@ -1962,8 +2282,14 @@
       <c r="E32" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
@@ -1976,8 +2302,14 @@
       <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
@@ -1990,8 +2322,14 @@
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
@@ -2004,8 +2342,14 @@
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2018,8 +2362,14 @@
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -2032,8 +2382,14 @@
       <c r="E37" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
@@ -2049,8 +2405,14 @@
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
@@ -2063,8 +2425,14 @@
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>59</v>
       </c>
@@ -2077,8 +2445,14 @@
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>61</v>
       </c>
@@ -2091,8 +2465,14 @@
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>62</v>
       </c>
@@ -2105,8 +2485,14 @@
       <c r="E42" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>63</v>
       </c>
@@ -2119,8 +2505,17 @@
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>63</v>
       </c>
@@ -2133,8 +2528,14 @@
       <c r="E44" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>65</v>
       </c>
@@ -2147,8 +2548,14 @@
       <c r="E45" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>67</v>
       </c>
@@ -2161,8 +2568,14 @@
       <c r="E46" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>68</v>
       </c>
@@ -2175,8 +2588,17 @@
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -2189,8 +2611,14 @@
       <c r="E48" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>72</v>
       </c>
@@ -2203,8 +2631,14 @@
       <c r="E49" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -2217,8 +2651,14 @@
       <c r="E50" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>74</v>
       </c>
@@ -2234,8 +2674,14 @@
       <c r="E51" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>76</v>
       </c>
@@ -2248,8 +2694,14 @@
       <c r="E52" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>77</v>
       </c>
@@ -2265,8 +2717,14 @@
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>79</v>
       </c>
@@ -2279,8 +2737,14 @@
       <c r="E54" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>79</v>
       </c>
@@ -2296,8 +2760,14 @@
       <c r="E55" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -2310,8 +2780,14 @@
       <c r="E56" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>83</v>
       </c>
@@ -2324,8 +2800,14 @@
       <c r="E57" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>84</v>
       </c>
@@ -2338,8 +2820,14 @@
       <c r="E58" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
@@ -2352,8 +2840,14 @@
       <c r="E59" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>87</v>
       </c>
@@ -2369,8 +2863,14 @@
       <c r="E60" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>89</v>
       </c>
@@ -2386,8 +2886,14 @@
       <c r="E61" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>89</v>
       </c>
@@ -2403,8 +2909,14 @@
       <c r="E62" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>93</v>
       </c>
@@ -2417,8 +2929,14 @@
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>93</v>
       </c>
@@ -2431,8 +2949,14 @@
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>94</v>
       </c>
@@ -2445,8 +2969,14 @@
       <c r="E65" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>94</v>
       </c>
@@ -2459,8 +2989,14 @@
       <c r="E66" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>94</v>
       </c>
@@ -2473,8 +3009,17 @@
       <c r="E67" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>96</v>
       </c>
@@ -2487,8 +3032,14 @@
       <c r="E68" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>97</v>
       </c>
@@ -2501,8 +3052,17 @@
       <c r="E69" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1954</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>97</v>
       </c>
@@ -2515,8 +3075,17 @@
       <c r="E70" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1949</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>100</v>
       </c>
@@ -2529,8 +3098,14 @@
       <c r="E71" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>102</v>
       </c>
@@ -2544,7 +3119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>102</v>
       </c>
@@ -2557,8 +3132,11 @@
       <c r="E73" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>105</v>
       </c>
@@ -2571,8 +3149,14 @@
       <c r="E74" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>107</v>
       </c>
@@ -2585,8 +3169,14 @@
       <c r="E75" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>107</v>
       </c>
@@ -2599,8 +3189,14 @@
       <c r="E76" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>109</v>
       </c>
@@ -2613,8 +3209,14 @@
       <c r="E77" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>111</v>
       </c>
@@ -2627,8 +3229,14 @@
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>113</v>
       </c>
@@ -2641,8 +3249,14 @@
       <c r="E79" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
@@ -2655,8 +3269,14 @@
       <c r="E80" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>115</v>
       </c>
@@ -2669,8 +3289,14 @@
       <c r="E81" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>115</v>
       </c>
@@ -2683,8 +3309,14 @@
       <c r="E82" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>115</v>
       </c>
@@ -2697,8 +3329,14 @@
       <c r="E83" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>124</v>
       </c>
@@ -2711,8 +3349,14 @@
       <c r="E84" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>124</v>
       </c>
@@ -2726,7 +3370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>124</v>
       </c>
@@ -2739,8 +3383,14 @@
       <c r="E86" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>129</v>
       </c>
@@ -2753,8 +3403,14 @@
       <c r="E87" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>130</v>
       </c>
@@ -2767,8 +3423,14 @@
       <c r="E88" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>131</v>
       </c>
@@ -2784,8 +3446,17 @@
       <c r="E89" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="5">
+        <v>1960</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>131</v>
       </c>
@@ -2798,8 +3469,17 @@
       <c r="E90" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1957</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>131</v>
       </c>
@@ -2812,8 +3492,17 @@
       <c r="E91" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1954</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>131</v>
       </c>
@@ -2826,8 +3515,17 @@
       <c r="E92" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1954</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>131</v>
       </c>
@@ -2840,8 +3538,17 @@
       <c r="E93" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1952</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>131</v>
       </c>
@@ -2854,8 +3561,17 @@
       <c r="E94" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1950</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>131</v>
       </c>
@@ -2868,8 +3584,17 @@
       <c r="E95" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1948</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>145</v>
       </c>
@@ -2882,8 +3607,14 @@
       <c r="E96" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>145</v>
       </c>
@@ -2896,8 +3627,14 @@
       <c r="E97" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>149</v>
       </c>
@@ -2910,8 +3647,14 @@
       <c r="E98" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>150</v>
       </c>
@@ -2924,8 +3667,14 @@
       <c r="E99" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>152</v>
       </c>
@@ -2938,8 +3687,14 @@
       <c r="E100" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>153</v>
       </c>
@@ -2952,8 +3707,14 @@
       <c r="E101" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>154</v>
       </c>
@@ -2966,8 +3727,17 @@
       <c r="E102" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1979</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>154</v>
       </c>
@@ -2983,8 +3753,14 @@
       <c r="E103" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="5">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>158</v>
       </c>
@@ -2997,8 +3773,14 @@
       <c r="E104" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>159</v>
       </c>
@@ -3011,8 +3793,14 @@
       <c r="E105" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>159</v>
       </c>
@@ -3025,8 +3813,14 @@
       <c r="E106" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>162</v>
       </c>
@@ -3039,8 +3833,14 @@
       <c r="E107" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>164</v>
       </c>
@@ -3053,8 +3853,14 @@
       <c r="E108" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>166</v>
       </c>
@@ -3070,8 +3876,14 @@
       <c r="E109" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>168</v>
       </c>
@@ -3084,8 +3896,14 @@
       <c r="E110" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>170</v>
       </c>
@@ -3101,8 +3919,14 @@
       <c r="E111" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>172</v>
       </c>
@@ -3115,8 +3939,14 @@
       <c r="E112" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>172</v>
       </c>
@@ -3129,8 +3959,14 @@
       <c r="E113" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>173</v>
       </c>
@@ -3143,8 +3979,11 @@
       <c r="E114" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H114" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>175</v>
       </c>
@@ -3157,8 +3996,14 @@
       <c r="E115" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>177</v>
       </c>
@@ -3171,8 +4016,14 @@
       <c r="E116" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>178</v>
       </c>
@@ -3185,8 +4036,14 @@
       <c r="E117" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>179</v>
       </c>
@@ -3199,8 +4056,14 @@
       <c r="E118" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>180</v>
       </c>
@@ -3213,8 +4076,14 @@
       <c r="E119" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>180</v>
       </c>
@@ -3230,8 +4099,14 @@
       <c r="E120" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>181</v>
       </c>
@@ -3244,8 +4119,14 @@
       <c r="E121" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>181</v>
       </c>
@@ -3258,8 +4139,14 @@
       <c r="E122" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>182</v>
       </c>
@@ -3272,8 +4159,14 @@
       <c r="E123" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>183</v>
       </c>
@@ -3286,8 +4179,14 @@
       <c r="E124" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -3303,8 +4202,14 @@
       <c r="E125" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>185</v>
       </c>
@@ -3317,8 +4222,14 @@
       <c r="E126" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>187</v>
       </c>
@@ -3331,8 +4242,14 @@
       <c r="E127" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>187</v>
       </c>
@@ -3348,8 +4265,14 @@
       <c r="E128" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>189</v>
       </c>
@@ -3362,8 +4285,14 @@
       <c r="E129" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>190</v>
       </c>
@@ -3376,8 +4305,14 @@
       <c r="E130" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>190</v>
       </c>
@@ -3390,8 +4325,14 @@
       <c r="E131" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>191</v>
       </c>
@@ -3404,8 +4345,14 @@
       <c r="E132" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>192</v>
       </c>
@@ -3418,8 +4365,14 @@
       <c r="E133" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>193</v>
       </c>
@@ -3435,8 +4388,14 @@
       <c r="E134" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>195</v>
       </c>
@@ -3449,8 +4408,14 @@
       <c r="E135" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>197</v>
       </c>
@@ -3466,8 +4431,14 @@
       <c r="E136" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>200</v>
       </c>
@@ -3483,8 +4454,14 @@
       <c r="E137" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>200</v>
       </c>
@@ -3500,8 +4477,14 @@
       <c r="E138" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>202</v>
       </c>
@@ -3517,8 +4500,14 @@
       <c r="E139" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>203</v>
       </c>
@@ -3531,8 +4520,14 @@
       <c r="E140" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>205</v>
       </c>
@@ -3545,8 +4540,14 @@
       <c r="E141" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>205</v>
       </c>
@@ -3559,8 +4560,14 @@
       <c r="E142" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>207</v>
       </c>
@@ -3576,8 +4583,14 @@
       <c r="E143" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>209</v>
       </c>
@@ -3590,8 +4603,14 @@
       <c r="E144" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>210</v>
       </c>
@@ -3604,8 +4623,14 @@
       <c r="E145" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>211</v>
       </c>
@@ -3618,8 +4643,14 @@
       <c r="E146" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>212</v>
       </c>
@@ -3632,8 +4663,14 @@
       <c r="E147" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>213</v>
       </c>
@@ -3646,8 +4683,14 @@
       <c r="E148" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>214</v>
       </c>
@@ -3663,8 +4706,14 @@
       <c r="E149" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>216</v>
       </c>
@@ -3680,8 +4729,14 @@
       <c r="E150" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>216</v>
       </c>
@@ -3697,8 +4752,14 @@
       <c r="E151" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>219</v>
       </c>
@@ -3711,8 +4772,14 @@
       <c r="E152" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>220</v>
       </c>
@@ -3725,8 +4792,14 @@
       <c r="E153" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>221</v>
       </c>
@@ -3739,8 +4812,14 @@
       <c r="E154" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>222</v>
       </c>
@@ -3753,8 +4832,14 @@
       <c r="E155" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F155" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>222</v>
       </c>
@@ -3767,8 +4852,14 @@
       <c r="E156" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F156" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>224</v>
       </c>
@@ -3781,8 +4872,14 @@
       <c r="E157" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F157" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>226</v>
       </c>
@@ -3795,8 +4892,17 @@
       <c r="E158" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F158" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>228</v>
       </c>
@@ -3809,8 +4915,11 @@
       <c r="E159" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H159" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>228</v>
       </c>
@@ -3823,8 +4932,14 @@
       <c r="E160" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F160" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>230</v>
       </c>
@@ -3837,8 +4952,14 @@
       <c r="E161" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F161" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>231</v>
       </c>
@@ -3851,8 +4972,14 @@
       <c r="E162" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>231</v>
       </c>
@@ -3865,8 +4992,14 @@
       <c r="E163" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F163" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>231</v>
       </c>
@@ -3879,8 +5012,14 @@
       <c r="E164" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F164" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>233</v>
       </c>
@@ -3896,8 +5035,14 @@
       <c r="E165" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>234</v>
       </c>
@@ -3910,8 +5055,14 @@
       <c r="E166" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>235</v>
       </c>
@@ -3924,8 +5075,14 @@
       <c r="E167" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F167" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>236</v>
       </c>
@@ -3938,8 +5095,14 @@
       <c r="E168" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F168" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>237</v>
       </c>
@@ -3955,8 +5118,14 @@
       <c r="E169" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>239</v>
       </c>
@@ -3969,8 +5138,14 @@
       <c r="E170" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F170" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>240</v>
       </c>
@@ -3986,8 +5161,14 @@
       <c r="E171" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F171" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>241</v>
       </c>
@@ -4000,8 +5181,14 @@
       <c r="E172" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F172" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>243</v>
       </c>
@@ -4014,8 +5201,14 @@
       <c r="E173" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F173" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>244</v>
       </c>
@@ -4028,8 +5221,11 @@
       <c r="E174" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H174" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>244</v>
       </c>
@@ -4042,8 +5238,17 @@
       <c r="E175" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F175" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>248</v>
       </c>
@@ -4056,8 +5261,14 @@
       <c r="E176" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>248</v>
       </c>
@@ -4070,8 +5281,14 @@
       <c r="E177" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>251</v>
       </c>
@@ -4087,8 +5304,14 @@
       <c r="E178" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>253</v>
       </c>
@@ -4101,8 +5324,14 @@
       <c r="E179" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>254</v>
       </c>
@@ -4118,8 +5347,14 @@
       <c r="E180" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="5">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>256</v>
       </c>
@@ -4135,8 +5370,14 @@
       <c r="E181" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>258</v>
       </c>
@@ -4152,8 +5393,14 @@
       <c r="E182" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>260</v>
       </c>
@@ -4169,8 +5416,14 @@
       <c r="E183" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>260</v>
       </c>
@@ -4183,8 +5436,14 @@
       <c r="E184" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>260</v>
       </c>
@@ -4197,8 +5456,14 @@
       <c r="E185" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>262</v>
       </c>
@@ -4211,8 +5476,14 @@
       <c r="E186" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>263</v>
       </c>
@@ -4225,8 +5496,17 @@
       <c r="E187" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G187" s="5">
+        <v>1953</v>
+      </c>
+      <c r="H187" s="5">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>263</v>
       </c>
@@ -4239,8 +5519,14 @@
       <c r="E188" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F188" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>263</v>
       </c>
@@ -4253,8 +5539,14 @@
       <c r="E189" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>265</v>
       </c>
@@ -4267,8 +5559,14 @@
       <c r="E190" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>265</v>
       </c>
@@ -4281,8 +5579,14 @@
       <c r="E191" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>265</v>
       </c>
@@ -4295,8 +5599,14 @@
       <c r="E192" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>265</v>
       </c>
@@ -4310,7 +5620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>268</v>
       </c>
@@ -4323,8 +5633,11 @@
       <c r="E194" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>268</v>
       </c>
@@ -4337,8 +5650,14 @@
       <c r="E195" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>268</v>
       </c>
@@ -4351,8 +5670,14 @@
       <c r="E196" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>270</v>
       </c>
@@ -4365,8 +5690,14 @@
       <c r="E197" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>271</v>
       </c>
@@ -4380,7 +5711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>271</v>
       </c>
@@ -4393,8 +5724,14 @@
       <c r="E199" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>274</v>
       </c>
@@ -4407,8 +5744,14 @@
       <c r="E200" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>275</v>
       </c>
@@ -4424,8 +5767,14 @@
       <c r="E201" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>276</v>
       </c>
@@ -4438,8 +5787,14 @@
       <c r="E202" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>276</v>
       </c>
@@ -4452,8 +5807,14 @@
       <c r="E203" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>278</v>
       </c>
@@ -4466,8 +5827,14 @@
       <c r="E204" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>279</v>
       </c>
@@ -4480,8 +5847,14 @@
       <c r="E205" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>279</v>
       </c>
@@ -4494,8 +5867,14 @@
       <c r="E206" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>280</v>
       </c>
@@ -4508,8 +5887,14 @@
       <c r="E207" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>280</v>
       </c>
@@ -4523,7 +5908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>283</v>
       </c>
@@ -4536,8 +5921,14 @@
       <c r="E209" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>284</v>
       </c>
@@ -4550,8 +5941,14 @@
       <c r="E210" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>285</v>
       </c>
@@ -4564,8 +5961,14 @@
       <c r="E211" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>286</v>
       </c>
@@ -4581,8 +5984,14 @@
       <c r="E212" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>288</v>
       </c>
@@ -4595,8 +6004,14 @@
       <c r="E213" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>288</v>
       </c>
@@ -4609,8 +6024,14 @@
       <c r="E214" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>288</v>
       </c>
@@ -4623,8 +6044,14 @@
       <c r="E215" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>289</v>
       </c>
@@ -4637,8 +6064,14 @@
       <c r="E216" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>290</v>
       </c>
@@ -4651,8 +6084,14 @@
       <c r="E217" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>291</v>
       </c>
@@ -4665,8 +6104,14 @@
       <c r="E218" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>292</v>
       </c>
@@ -4679,8 +6124,14 @@
       <c r="E219" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>293</v>
       </c>
@@ -4693,8 +6144,14 @@
       <c r="E220" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>294</v>
       </c>
@@ -4707,8 +6164,14 @@
       <c r="E221" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>295</v>
       </c>
@@ -4721,8 +6184,11 @@
       <c r="E222" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F222" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>295</v>
       </c>
@@ -4735,8 +6201,14 @@
       <c r="E223" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F223" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H223" s="5">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>295</v>
       </c>
@@ -4749,8 +6221,14 @@
       <c r="E224" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F224" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H224" s="5">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>295</v>
       </c>
@@ -4763,8 +6241,14 @@
       <c r="E225" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F225" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>295</v>
       </c>
@@ -4777,8 +6261,14 @@
       <c r="E226" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F226" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>300</v>
       </c>
@@ -4791,8 +6281,14 @@
       <c r="E227" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F227" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>302</v>
       </c>
@@ -4808,8 +6304,14 @@
       <c r="E228" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F228" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>303</v>
       </c>
@@ -4822,8 +6324,14 @@
       <c r="E229" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F229" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>304</v>
       </c>
@@ -4836,8 +6344,14 @@
       <c r="E230" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F230" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>305</v>
       </c>
@@ -4850,8 +6364,14 @@
       <c r="E231" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F231" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>306</v>
       </c>
@@ -4864,8 +6384,14 @@
       <c r="E232" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F232" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>307</v>
       </c>
@@ -4881,8 +6407,14 @@
       <c r="E233" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F233" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>309</v>
       </c>
@@ -4895,8 +6427,14 @@
       <c r="E234" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>310</v>
       </c>
@@ -4909,8 +6447,14 @@
       <c r="E235" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F235" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>310</v>
       </c>
@@ -4923,8 +6467,14 @@
       <c r="E236" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F236" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>311</v>
       </c>
@@ -4940,8 +6490,14 @@
       <c r="E237" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F237" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>311</v>
       </c>
@@ -4954,8 +6510,14 @@
       <c r="E238" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F238" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>312</v>
       </c>
@@ -4968,8 +6530,14 @@
       <c r="E239" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F239" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>313</v>
       </c>
@@ -4982,8 +6550,14 @@
       <c r="E240" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F240" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>314</v>
       </c>
@@ -4996,8 +6570,14 @@
       <c r="E241" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F241" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>315</v>
       </c>
@@ -5010,8 +6590,14 @@
       <c r="E242" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F242" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>315</v>
       </c>
@@ -5024,8 +6610,14 @@
       <c r="E243" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F243" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>316</v>
       </c>
@@ -5041,8 +6633,14 @@
       <c r="E244" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F244" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>318</v>
       </c>
@@ -5055,8 +6653,14 @@
       <c r="E245" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F245" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>320</v>
       </c>
@@ -5072,8 +6676,14 @@
       <c r="E246" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F246" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>321</v>
       </c>
@@ -5089,8 +6699,14 @@
       <c r="E247" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F247" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>324</v>
       </c>
@@ -5103,8 +6719,14 @@
       <c r="E248" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F248" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>325</v>
       </c>
@@ -5117,8 +6739,14 @@
       <c r="E249" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F249" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>325</v>
       </c>
@@ -5131,8 +6759,14 @@
       <c r="E250" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F250" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>325</v>
       </c>
@@ -5145,8 +6779,14 @@
       <c r="E251" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F251" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>327</v>
       </c>
@@ -5159,8 +6799,14 @@
       <c r="E252" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F252" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>327</v>
       </c>
@@ -5176,8 +6822,14 @@
       <c r="E253" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>330</v>
       </c>
@@ -5193,8 +6845,14 @@
       <c r="E254" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F254" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>332</v>
       </c>
@@ -5207,8 +6865,14 @@
       <c r="E255" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F255" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>333</v>
       </c>
@@ -5221,8 +6885,14 @@
       <c r="E256" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F256" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>334</v>
       </c>
@@ -5235,8 +6905,14 @@
       <c r="E257" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F257" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>335</v>
       </c>
@@ -5249,8 +6925,14 @@
       <c r="E258" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F258" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>336</v>
       </c>
@@ -5263,8 +6945,14 @@
       <c r="E259" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F259" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>338</v>
       </c>
@@ -5280,8 +6968,14 @@
       <c r="E260" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F260" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>339</v>
       </c>
@@ -5294,8 +6988,14 @@
       <c r="E261" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F261" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>339</v>
       </c>
@@ -5308,8 +7008,14 @@
       <c r="E262" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F262" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>340</v>
       </c>
@@ -5322,8 +7028,14 @@
       <c r="E263" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F263" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>340</v>
       </c>
@@ -5336,8 +7048,14 @@
       <c r="E264" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F264" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>341</v>
       </c>
@@ -5350,8 +7068,17 @@
       <c r="E265" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F265" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G265" s="5">
+        <v>1947</v>
+      </c>
+      <c r="H265" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>341</v>
       </c>
@@ -5364,8 +7091,17 @@
       <c r="E266" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F266" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G266" s="5">
+        <v>1947</v>
+      </c>
+      <c r="H266" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>341</v>
       </c>
@@ -5378,8 +7114,17 @@
       <c r="E267" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F267" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G267" s="5">
+        <v>1947</v>
+      </c>
+      <c r="H267" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>345</v>
       </c>
@@ -5392,8 +7137,14 @@
       <c r="E268" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F268" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>346</v>
       </c>
@@ -5409,8 +7160,14 @@
       <c r="E269" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F269" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H269" s="5">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>346</v>
       </c>
@@ -5423,8 +7180,14 @@
       <c r="E270" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F270" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H270" s="5">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>349</v>
       </c>
@@ -5437,8 +7200,14 @@
       <c r="E271" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F271" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>349</v>
       </c>
@@ -5451,8 +7220,14 @@
       <c r="E272" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F272" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>350</v>
       </c>
@@ -5465,8 +7240,14 @@
       <c r="E273" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F273" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>350</v>
       </c>
@@ -5482,8 +7263,14 @@
       <c r="E274" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F274" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>352</v>
       </c>
@@ -5499,8 +7286,14 @@
       <c r="E275" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F275" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>353</v>
       </c>
@@ -5512,6 +7305,12 @@
       </c>
       <c r="E276" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
